--- a/data/trans_dic/P24_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores de cabeza con bastante o mucha frecuencia</t>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 15,34</t>
+          <t>3,03; 26,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 25,09</t>
+          <t>6,65; 34,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 24,04</t>
+          <t>5,99; 32,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,58</t>
+          <t>0,0; 12,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,83; 42,67</t>
+          <t>0,0; 18,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 28,44</t>
+          <t>18,01; 45,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 35,97</t>
+          <t>6,37; 27,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,42; 44,27</t>
+          <t>20,11; 45,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 28,04</t>
+          <t>15,05; 39,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 22,34</t>
+          <t>9,77; 34,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,79; 27,11</t>
+          <t>13,63; 32,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 23,55</t>
+          <t>8,61; 26,63</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>15,79; 34,84</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8,01; 23,17</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 20,59</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>32,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16,72%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>17,75%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 41,46</t>
+          <t>6,31; 53,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 12,55</t>
+          <t>0,0; 12,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 18,24</t>
+          <t>3,4; 22,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 18,5</t>
+          <t>3,77; 24,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 37,19</t>
+          <t>1,36; 16,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,12; 38,97</t>
+          <t>20,71; 46,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,6; 31,19</t>
+          <t>23,57; 51,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 31,29</t>
+          <t>14,01; 37,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,39; 35,17</t>
+          <t>15,66; 39,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 24,7</t>
+          <t>20,73; 48,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 21,79</t>
+          <t>17,19; 44,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,71; 21,75</t>
+          <t>12,63; 30,59</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,3; 24,85</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,62; 27,48</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 27,03</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>18,49%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 18,68</t>
+          <t>3,12; 18,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 11,8</t>
+          <t>1,57; 13,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 12,43</t>
+          <t>1,82; 15,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 16,33</t>
+          <t>3,32; 19,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,1; 34,6</t>
+          <t>3,22; 18,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 28,11</t>
+          <t>17,39; 34,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,04; 29,86</t>
+          <t>13,82; 30,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,5; 34,3</t>
+          <t>15,67; 32,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 24,67</t>
+          <t>17,04; 34,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 18,5</t>
+          <t>16,17; 33,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 19,73</t>
+          <t>12,8; 26,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,34; 23,47</t>
+          <t>9,78; 21,71</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,1; 22,72</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 25,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11,45; 23,18</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>18,32%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,75%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 15,27</t>
+          <t>3,78; 16,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 12,98</t>
+          <t>5,81; 19,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 15,76</t>
+          <t>5,05; 19,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 12,21</t>
+          <t>5,09; 17,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,88; 27,64</t>
+          <t>4,05; 17,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 26,26</t>
+          <t>9,77; 24,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,8; 39,33</t>
+          <t>16,8; 33,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 29,62</t>
+          <t>27,03; 45,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,66; 19,93</t>
+          <t>13,74; 29,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 18,26</t>
+          <t>18,04; 34,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 26,28</t>
+          <t>8,45; 18,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,86</t>
+          <t>13,16; 24,05</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>18,15; 30,42</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>11,03; 21,68</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 24,0</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,61%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,45</t>
+          <t>1,31; 11,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,22</t>
+          <t>1,32; 12,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 12,88</t>
+          <t>2,46; 13,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 11,87</t>
+          <t>2,56; 14,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 20,3</t>
+          <t>1,59; 14,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 19,96</t>
+          <t>3,61; 20,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,77; 26,43</t>
+          <t>5,61; 24,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,42; 27,75</t>
+          <t>13,01; 36,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 13,75</t>
+          <t>9,56; 32,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 12,45</t>
+          <t>10,7; 34,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 17,32</t>
+          <t>3,26; 12,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,77; 18,07</t>
+          <t>4,74; 15,45</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 20,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 18,04</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 20,8</t>
         </is>
       </c>
     </row>
@@ -1361,57 +1536,72 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,56</t>
+          <t>0,0; 14,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 27,78</t>
+          <t>0,0; 14,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 21,46</t>
+          <t>1,97; 18,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,2; 16,25</t>
+          <t>2,35; 20,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,78; 24,87</t>
+          <t>4,7; 26,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 17,23</t>
+          <t>3,67; 22,58</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,36; 13,39</t>
+          <t>3,48; 22,11</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,64</t>
+          <t>1,1; 9,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 15,98</t>
+          <t>2,42; 12,87</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 17,84</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 12,19</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 15,34</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 12,74</t>
+          <t>5,77; 18,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,6</t>
+          <t>4,86; 10,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,86</t>
+          <t>6,22; 13,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,5</t>
+          <t>4,49; 10,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,3; 25,16</t>
+          <t>4,19; 9,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,69; 21,87</t>
+          <t>17,45; 25,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,23; 25,44</t>
+          <t>17,46; 25,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,57; 25,85</t>
+          <t>21,77; 30,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,17; 18,13</t>
+          <t>17,8; 26,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,86; 14,8</t>
+          <t>17,92; 27,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,27; 17,7</t>
+          <t>13,08; 19,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,34; 16,85</t>
+          <t>12,22; 17,5</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 21,08</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>12,03; 17,47</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 17,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8329</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19339</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16910</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3063</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4813</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37462</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20787</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38329</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31809</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29935</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>45790</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>40126</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>55239</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>34872</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>34748</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2609; 22508</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7121; 37338</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6337; 34136</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15948</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26300</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21169; 53546</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8533; 37235</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24147; 55165</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18435; 48974</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14210; 50493</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27751; 66683</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20744; 64187</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>35660; 78664</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20027; 57945</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>17638; 59966</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29762</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6078</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14093</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17978</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15356</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>43373</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61310</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31058</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32712</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>53863</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>73134</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>67387</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>45151</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>50690</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>69218</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8629; 73067</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20620</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4869; 32863</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5819; 37758</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3098; 37391</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27611; 61544</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>38913; 84478</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17752; 47313</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19784; 50211</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33656; 78065</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46429; 121388</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42150; 102133</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>25115; 67106</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>29792; 77107</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>36385; 105438</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12188</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8200</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9602</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12912</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15941</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>54918</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55308</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>48367</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49604</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>55671</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67106</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>63509</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>57969</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>62516</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>71612</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4356; 25957</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2538; 22228</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2450; 21437</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4563; 27514</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5810; 33163</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>37457; 74809</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36487; 81169</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32806; 67928</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34154; 68915</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38768; 79772</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>45439; 94880</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>41676; 92526</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>38155; 78098</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>43883; 84643</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>48072; 97341</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14395</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20155</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16600</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15521</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18650</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30736</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>54070</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65483</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>35304</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>55273</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45131</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>74225</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>82083</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>50824</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>73923</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6184; 26785</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10839; 35850</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8144; 31111</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7952; 27255</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8024; 34782</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18689; 46451</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36684; 72421</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49828; 84300</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23690; 50058</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38015; 73552</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>29972; 64020</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53287; 97435</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>62720; 105134</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>36240; 71251</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>54049; 98127</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6042</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8435</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9288</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8341</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9906</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10185</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15965</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21980</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16720</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>28389</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16227</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24400</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>31268</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>25061</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>38295</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1824; 16588</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2076; 19384</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3253; 18314</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3149; 17537</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2461; 22736</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3732; 21139</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6520; 28950</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12209; 34580</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8856; 30031</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>14660; 47727</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7900; 30045</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12964; 42281</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>19446; 46203</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>14616; 38951</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>22639; 60661</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4021</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6992</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12456</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14252</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11045</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>21774</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6992</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15924</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>18401</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>11045</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>25796</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15349</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12814</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 20459</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2111; 20116</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3232; 27952</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4944; 27755</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4062; 24971</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7339; 46616</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2161; 19193</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5984; 31772</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>8869; 34342</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>3775; 24468</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>11638; 53468</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>70715</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>65674</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>70643</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>57814</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>68688</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>183665</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>219896</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>219469</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>177193</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>244905</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>254380</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>285570</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>290111</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>235007</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>313592</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>43559; 136975</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>43338; 95022</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>47548; 102461</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>35435; 81154</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>43743; 102659</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>151436; 222712</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>180750; 261149</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>182745; 256394</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>146821; 217610</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>198193; 299729</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>212274; 321536</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>235450; 337074</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>247154; 338062</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>194188; 281921</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>263298; 380343</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>